--- a/county_static.xlsx
+++ b/county_static.xlsx
@@ -471,16 +471,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2385</v>
+        <v>3476</v>
       </c>
       <c r="D2" t="n">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="E2" t="n">
-        <v>1674</v>
+        <v>2071</v>
       </c>
       <c r="F2" t="n">
-        <v>94</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
@@ -493,16 +493,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1724</v>
+        <v>2353</v>
       </c>
       <c r="D3" t="n">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="E3" t="n">
-        <v>1187</v>
+        <v>1388</v>
       </c>
       <c r="F3" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
@@ -515,16 +515,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1516</v>
+        <v>2059</v>
       </c>
       <c r="D4" t="n">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="E4" t="n">
-        <v>955</v>
+        <v>1128</v>
       </c>
       <c r="F4" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
@@ -537,16 +537,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4375</v>
+        <v>6257</v>
       </c>
       <c r="D5" t="n">
-        <v>523</v>
+        <v>207</v>
       </c>
       <c r="E5" t="n">
-        <v>2872</v>
+        <v>3901</v>
       </c>
       <c r="F5" t="n">
-        <v>202</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
